--- a/北大医院报告/工作簿1.xlsx
+++ b/北大医院报告/工作簿1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\smart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\doc_test\北大医院报告\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF2FEC8B-FA37-4B3A-81FF-FA96A92544FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393BD0A5-B87E-4C53-8524-22EAFB49E558}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="3360" windowWidth="17280" windowHeight="6960" activeTab="2" xr2:uid="{AA49DC88-40E3-4BEA-B7E2-AD1E237589F7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{AA49DC88-40E3-4BEA-B7E2-AD1E237589F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="5">
   <si>
     <t>训练集loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -421,9 +421,9 @@
       <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -457,7 +457,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -474,7 +474,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -491,7 +491,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -508,7 +508,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -539,9 +539,9 @@
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -558,7 +558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -575,7 +575,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -592,7 +592,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -609,7 +609,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -626,7 +626,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -643,7 +643,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -660,7 +660,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -677,7 +677,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -694,7 +694,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -711,7 +711,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -736,15 +736,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7645B925-E901-4A3B-9A98-574FEB9F7A0A}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E11"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -757,11 +757,8 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -774,11 +771,8 @@
       <c r="D2">
         <v>74</v>
       </c>
-      <c r="E2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -791,11 +785,8 @@
       <c r="D3">
         <v>80</v>
       </c>
-      <c r="E3">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -808,11 +799,8 @@
       <c r="D4">
         <v>81</v>
       </c>
-      <c r="E4">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -825,11 +813,8 @@
       <c r="D5">
         <v>83</v>
       </c>
-      <c r="E5">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -842,11 +827,8 @@
       <c r="D6">
         <v>83</v>
       </c>
-      <c r="E6">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -859,11 +841,8 @@
       <c r="D7">
         <v>84</v>
       </c>
-      <c r="E7">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -876,11 +855,8 @@
       <c r="D8">
         <v>86</v>
       </c>
-      <c r="E8">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -893,11 +869,8 @@
       <c r="D9">
         <v>85</v>
       </c>
-      <c r="E9">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -910,11 +883,8 @@
       <c r="D10">
         <v>86</v>
       </c>
-      <c r="E10">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -926,9 +896,6 @@
       </c>
       <c r="D11">
         <v>87</v>
-      </c>
-      <c r="E11">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
